--- a/results/TS_2/answers_part2.xlsx
+++ b/results/TS_2/answers_part2.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C2" t="n">
-        <v>930</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C3" t="n">
-        <v>879</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C4" t="n">
-        <v>5616</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C5" t="n">
-        <v>1131</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C6" t="n">
-        <v>2323</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C7" t="n">
-        <v>1177</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C8" t="n">
-        <v>1238</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C9" t="n">
-        <v>865</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C10" t="n">
-        <v>766</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C11" t="n">
-        <v>854</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C12" t="n">
-        <v>846</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C13" t="n">
-        <v>4354</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C14" t="n">
-        <v>1403</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C15" t="n">
-        <v>1240</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C16" t="n">
-        <v>1253</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C17" t="n">
-        <v>1570</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C18" t="n">
-        <v>1690</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C19" t="n">
-        <v>1417</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C20" t="n">
-        <v>1340</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C21" t="n">
-        <v>2214</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C22" t="n">
-        <v>675</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C23" t="n">
-        <v>672</v>
+        <v>623</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C24" t="n">
-        <v>819</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C25" t="n">
-        <v>662</v>
+        <v>796</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C26" t="n">
-        <v>837</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C27" t="n">
-        <v>670</v>
+        <v>642</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C28" t="n">
-        <v>1038</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C29" t="n">
-        <v>714</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C30" t="n">
-        <v>739</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C31" t="n">
-        <v>628</v>
+        <v>8805</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C32" t="n">
-        <v>3632</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C33" t="n">
-        <v>1957</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C34" t="n">
-        <v>26499</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C35" t="n">
-        <v>758</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C36" t="n">
-        <v>1322</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C37" t="n">
-        <v>2295</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C38" t="n">
-        <v>3434</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C39" t="n">
-        <v>1570</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C40" t="n">
-        <v>1412</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41">
@@ -882,7 +882,7 @@
         <v>8099</v>
       </c>
       <c r="C41" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C42" t="n">
-        <v>1020</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C43" t="n">
-        <v>714</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44">
@@ -915,7 +915,7 @@
         <v>9749</v>
       </c>
       <c r="C44" t="n">
-        <v>191</v>
+        <v>582</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C45" t="n">
-        <v>798</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C46" t="n">
-        <v>770</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C47" t="n">
-        <v>869</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C48" t="n">
-        <v>1206</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49">
@@ -967,10 +967,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C49" t="n">
-        <v>638</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="50">
@@ -978,10 +978,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C50" t="n">
-        <v>1230</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51">
@@ -989,10 +989,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C51" t="n">
-        <v>2159</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -1000,10 +1000,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C52" t="n">
-        <v>687</v>
+        <v>466</v>
       </c>
     </row>
     <row r="53">
@@ -1011,10 +1011,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C53" t="n">
-        <v>671</v>
+        <v>630</v>
       </c>
     </row>
     <row r="54">
@@ -1022,10 +1022,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C54" t="n">
-        <v>686</v>
+        <v>476</v>
       </c>
     </row>
     <row r="55">
@@ -1033,10 +1033,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C55" t="n">
-        <v>710</v>
+        <v>342</v>
       </c>
     </row>
     <row r="56">
@@ -1044,10 +1044,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C56" t="n">
-        <v>693</v>
+        <v>430</v>
       </c>
     </row>
     <row r="57">
@@ -1055,10 +1055,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C57" t="n">
-        <v>691</v>
+        <v>441</v>
       </c>
     </row>
     <row r="58">
@@ -1066,10 +1066,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C58" t="n">
-        <v>706</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59">
@@ -1077,10 +1077,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C59" t="n">
-        <v>735</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60">
@@ -1088,10 +1088,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C60" t="n">
-        <v>708</v>
+        <v>351</v>
       </c>
     </row>
     <row r="61">
@@ -1099,10 +1099,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C61" t="n">
-        <v>634</v>
+        <v>3291</v>
       </c>
     </row>
   </sheetData>
